--- a/data/long_bre/P18_4-Estudios-long_bre.xlsx
+++ b/data/long_bre/P18_4-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-26,91%</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,41%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>-11,89%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-20,38%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,6%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 3,31</t>
+          <t>-14,17; 9,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 9,38</t>
+          <t>-27,34; 6,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 12,32</t>
+          <t>-5,18; 12,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-66,95; 27,6</t>
+          <t>-7,3; 20,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 33,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 60,5</t>
+          <t>-50,8; 65,01</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-50,58; 20,18</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-16,91; 62,76</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-20,12; 109,35</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>-14,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>56,83%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,1%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-30,17%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 17,49</t>
+          <t>0,46; 27,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 11,52</t>
+          <t>-8,86; 19,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 13,99</t>
+          <t>-10,26; 10,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 74,74</t>
+          <t>-33,02; -1,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 36,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 42,62</t>
+          <t>1,46; 142,73</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-19,63; 70,12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-22,87; 29,86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-54,52; -3,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-12,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,19%</t>
+          <t>-23,5%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15,19%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-10,13%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40,06%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 15,61</t>
+          <t>-28,06; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 15,29</t>
+          <t>-8,72; 16,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 4,98</t>
+          <t>-17,21; 6,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 42,36</t>
+          <t>-1,98; 22,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 95,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 18,63</t>
+          <t>-45,33; 6,93</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-29,02; 94,78</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-38,65; 21,86</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,1; 140,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,0%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 3,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 9,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 9,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 22,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 32,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 41,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,43%</t>
+          <t>-12,59%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-7,64%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 8,68</t>
+          <t>-11,01; 5,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 4,16</t>
+          <t>-6,82; 10,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 1,08</t>
+          <t>-3,8; 8,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 29,14</t>
+          <t>-8,94; 5,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 10,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 2,55</t>
+          <t>-42,39; 35,1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-17,19; 35,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,46; 36,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-31,93; 31,82</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,79%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-12,66%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-10,9%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 8,26</t>
+          <t>-8,6; 11,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 8,38</t>
+          <t>-10,31; 6,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 9,82</t>
+          <t>-12,5; 1,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 18,95</t>
+          <t>-14,94; 3,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 43,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 40,89</t>
+          <t>-20,46; 37,66</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-22,2; 18,18</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,16; 3,46</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-28,18; 8,46</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>47,17%</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-0,03%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22,93%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 9,89</t>
+          <t>-9,07; 10,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 13,77</t>
+          <t>-8,1; 8,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 6,34</t>
+          <t>-3,89; 9,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 145,69</t>
+          <t>-1,18; 14,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 44,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 26,61</t>
+          <t>-18,2; 27,37</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-28,4; 42,53</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 37,61</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 58,31</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,6%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 8,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 0,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 6,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 21,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 0,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 16,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>33,83%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,24%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-16,56%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 5,08</t>
+          <t>-2,54; 8,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 9,29</t>
+          <t>-3,37; 14,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 7,35</t>
+          <t>-7,19; 5,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 12,39</t>
+          <t>-15,31; 2,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 71,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 33,59</t>
+          <t>-22,8; 148,45</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 45,42</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-22,24; 24,92</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-44,46; 13,48</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-16,29%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-1,09%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-2,57%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,89</t>
+          <t>-4,66; 15,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 7,53</t>
+          <t>-16,17; 2,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,07</t>
+          <t>-7,51; 6,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 20,42</t>
+          <t>-9,99; 8,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 23,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 24,67</t>
+          <t>-10,01; 45,32</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-31,88; 5,46</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-15,21; 16,12</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,08; 20,52</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>-15,81%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 5,92</t>
+          <t>-18,18; 1,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -0,11</t>
+          <t>-4,95; 8,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 2,3</t>
+          <t>-6,26; 7,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 17,66</t>
+          <t>-2,67; 12,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-21,91; -0,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 5,61</t>
+          <t>-31,99; 3,69</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-24,74; 62,83</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-19,76; 33,02</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-7,92; 52,16</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 7,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 10,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 37,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 19,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>5,07</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>16,55%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 7,68</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 16,63</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-16,57; 64,62</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-14,97; 60,24</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-5,78</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-14,6</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-15,54%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-28,73%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-14,02; 2,09</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-26,89; -3,54</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-33,05; 5,41</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-46,09; -6,81</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>9,53</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>61,28%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 11,52</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 18,11</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-8,65; 25,91</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 144,35</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>-2,52%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 3,67</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 7,37</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 6,05</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 4,23</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-18,14; 27,41</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-8,36; 22,68</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 24,72</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-21,99; 19,27</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-5,17</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-2,88</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-5,96</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-11,84%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-6,49%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-12,71%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 5,87</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-10,53; -0,06</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 1,52</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-13,24; -0,57</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 17,48</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-22,2; -0,23</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-15,61; 3,72</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-25,05; -0,98</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-3,78%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>15,19%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>23,51%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 3,0</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 7,47</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 5,46</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 12,0</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-14,38; 6,69</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 40,2</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-12,77; 20,88</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 48,59</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P18_4-Estudios-long_bre.xlsx
+++ b/data/long_bre/P18_4-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
